--- a/Mahjong.xlsx
+++ b/Mahjong.xlsx
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -742,7 +742,9 @@
       <c r="AC8" s="8"/>
     </row>
     <row r="9" spans="1:29" ht="15" customHeight="1">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>3</v>
@@ -792,14 +794,14 @@
         <v>3</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="7"/>
+      <c r="AA9" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AB9" s="7"/>
       <c r="AC9" s="8"/>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -825,16 +827,14 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
-      <c r="AC10" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC10" s="8"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>3</v>
@@ -884,7 +884,9 @@
         <v>3</v>
       </c>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="7"/>
+      <c r="AA11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AB11" s="7"/>
       <c r="AC11" s="8"/>
     </row>
@@ -2872,9 +2874,7 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
-      <c r="N70" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="N70" s="6"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
